--- a/case_study/tables/Supplementary File 5.xlsx
+++ b/case_study/tables/Supplementary File 5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="112">
   <si>
     <t>common_name</t>
   </si>
@@ -282,13 +282,10 @@
     <t>EX_fru_e</t>
   </si>
   <si>
-    <t>EX_man_e</t>
+    <t>-</t>
   </si>
   <si>
     <t>EX_madg_e</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>EX_glyc_e</t>
@@ -845,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -928,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -1011,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -1094,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -1177,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -1260,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -1343,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -1426,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -1509,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -1592,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -1675,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1758,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1841,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1924,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1971,7 +1968,7 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2007,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2054,7 +2051,7 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2090,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2137,7 +2134,7 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2173,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2220,7 +2217,7 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2256,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2303,7 +2300,7 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2339,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -2386,7 +2383,7 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2422,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2469,7 +2466,7 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2505,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2552,7 +2549,7 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2588,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2635,7 +2632,7 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2671,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2718,7 +2715,7 @@
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2754,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2801,7 +2798,7 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2837,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2884,7 +2881,7 @@
         <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2920,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2967,7 +2964,7 @@
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3003,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -3050,7 +3047,7 @@
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3086,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -3133,7 +3130,7 @@
         <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3169,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -3216,7 +3213,7 @@
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3252,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -3299,7 +3296,7 @@
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3335,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -3382,7 +3379,7 @@
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3418,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -3465,7 +3462,7 @@
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3501,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -3548,43 +3545,43 @@
         <v>60</v>
       </c>
       <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
         <v>99</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35" t="s">
-        <v>100</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -3631,7 +3628,7 @@
         <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3667,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -3714,7 +3711,7 @@
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3750,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -3797,7 +3794,7 @@
         <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3833,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -3880,7 +3877,7 @@
         <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3916,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -3963,7 +3960,7 @@
         <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -3999,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -4046,7 +4043,7 @@
         <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -4082,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -4129,7 +4126,7 @@
         <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -4165,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -4212,7 +4209,7 @@
         <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -4248,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -4295,7 +4292,7 @@
         <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -4331,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -4378,7 +4375,7 @@
         <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -4414,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -4461,7 +4458,7 @@
         <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -4497,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -4544,7 +4541,7 @@
         <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -4580,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -4627,7 +4624,7 @@
         <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -4663,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -4710,7 +4707,7 @@
         <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -4746,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -4793,7 +4790,7 @@
         <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -4829,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -4892,40 +4889,40 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4948,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9895287958115183</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -4966,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9895287958115183</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -4995,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8167539267015707</v>
+        <v>0.9887640449438202</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -5007,19 +5004,19 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0.967479674796748</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8167539267015707</v>
+        <v>0.9887640449438202</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3">
-        <v>0.9722222222222222</v>
+        <v>0.9811320754716981</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5160,7 +5157,7 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>0.9861111111111112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -5183,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9947643979057592</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -5201,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9947643979057592</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -5230,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9947643979057592</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -5248,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9947643979057592</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -5277,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9947643979057592</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -5295,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9947643979057592</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -5324,7 +5321,7 @@
         <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.9895287958115183</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -5342,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9895287958115183</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -5365,37 +5362,37 @@
         <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0.6375</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7277486910994765</v>
+        <v>0.8651685393258427</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6375</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>0.959349593495935</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L11">
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.7277486910994765</v>
+        <v>0.8651685393258427</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>0.8055555555555556</v>
+        <v>0.9716981132075472</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -5412,37 +5409,37 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.387434554973822</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.1869918699186992</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.387434554973822</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12">
-        <v>0.3611111111111111</v>
+        <v>0.1886792452830189</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -5465,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.03664921465968586</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -5483,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.03664921465968586</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -5553,37 +5550,37 @@
         <v>0.5</v>
       </c>
       <c r="E15">
-        <v>0.0125</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.005235602094240838</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="H15">
         <v>0.5</v>
       </c>
       <c r="I15">
-        <v>0.0125</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.008130081300813009</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005235602094240838</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.009433962264150943</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -5594,7 +5591,7 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -5641,7 +5638,7 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -5653,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.9895287958115183</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -5665,19 +5662,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9918699186991869</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9895287958115183</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0.9905660377358491</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -5688,7 +5685,7 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -5735,7 +5732,7 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -5782,7 +5779,7 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -5829,7 +5826,7 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -5876,7 +5873,7 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -5923,7 +5920,7 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -5970,7 +5967,7 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -6017,7 +6014,7 @@
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -6064,7 +6061,7 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -6111,7 +6108,7 @@
         <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -6158,7 +6155,7 @@
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -6205,7 +6202,7 @@
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -6252,7 +6249,7 @@
         <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -6299,7 +6296,7 @@
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -6346,7 +6343,7 @@
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -6393,7 +6390,7 @@
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -6440,43 +6437,43 @@
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.3125</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.9057591623036649</v>
+        <v>0.9438202247191011</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0.3125</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0.983739837398374</v>
+        <v>1</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0.9057591623036649</v>
+        <v>0.9438202247191011</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>0.9444444444444444</v>
+        <v>0.9716981132075472</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -6487,7 +6484,7 @@
         <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -6499,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0.9947643979057592</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -6511,19 +6508,19 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0.9918699186991869</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0.9947643979057592</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>0.9861111111111112</v>
+        <v>0.9905660377358491</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -6534,7 +6531,7 @@
         <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -6581,7 +6578,7 @@
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -6628,7 +6625,7 @@
         <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -6675,7 +6672,7 @@
         <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -6722,7 +6719,7 @@
         <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -6769,7 +6766,7 @@
         <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -6816,7 +6813,7 @@
         <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D42">
         <v>0.5</v>
@@ -6863,7 +6860,7 @@
         <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6910,7 +6907,7 @@
         <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6957,7 +6954,7 @@
         <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -7004,7 +7001,7 @@
         <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -7051,7 +7048,7 @@
         <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -7098,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -7145,7 +7142,7 @@
         <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -7192,7 +7189,7 @@
         <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -7255,40 +7252,40 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -7311,7 +7308,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9827586206896551</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -7358,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7413793103448276</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -7370,13 +7367,13 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0.9523809523809523</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8947368421052632</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -7546,7 +7543,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9913793103448276</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -7640,7 +7637,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9913793103448276</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -7687,7 +7684,7 @@
         <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.9827586206896551</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -7728,13 +7725,13 @@
         <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0.6323529411764706</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6120689655172413</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -7752,7 +7749,7 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.8421052631578947</v>
+        <v>0.8</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -7781,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.08620689655172414</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -7799,7 +7796,7 @@
         <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.8947368421052632</v>
+        <v>0.85</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -7828,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.05172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -7916,7 +7913,7 @@
         <v>0.5</v>
       </c>
       <c r="E15">
-        <v>0.01470588235294118</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -7940,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02631578947368421</v>
+        <v>0.05</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -7957,7 +7954,7 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -8004,7 +8001,7 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -8016,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.9827586206896551</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -8028,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9841269841269841</v>
+        <v>0.9830508474576272</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -8051,7 +8048,7 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -8098,7 +8095,7 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -8145,7 +8142,7 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -8192,7 +8189,7 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -8239,7 +8236,7 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -8286,7 +8283,7 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -8333,7 +8330,7 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -8380,7 +8377,7 @@
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -8427,7 +8424,7 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -8474,7 +8471,7 @@
         <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -8521,7 +8518,7 @@
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -8568,7 +8565,7 @@
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -8615,7 +8612,7 @@
         <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -8662,7 +8659,7 @@
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -8709,7 +8706,7 @@
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -8756,7 +8753,7 @@
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -8803,19 +8800,19 @@
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.3823529411764706</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.9482758620689655</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -8833,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -8850,7 +8847,7 @@
         <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -8862,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0.9913793103448276</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -8874,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0.9841269841269841</v>
+        <v>0.9830508474576272</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -8897,7 +8894,7 @@
         <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -8944,7 +8941,7 @@
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -8991,7 +8988,7 @@
         <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -9038,7 +9035,7 @@
         <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -9085,7 +9082,7 @@
         <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -9132,7 +9129,7 @@
         <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -9179,7 +9176,7 @@
         <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D42">
         <v>0.5</v>
@@ -9226,7 +9223,7 @@
         <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -9273,7 +9270,7 @@
         <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -9320,7 +9317,7 @@
         <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -9367,7 +9364,7 @@
         <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -9414,7 +9411,7 @@
         <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -9461,7 +9458,7 @@
         <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -9508,7 +9505,7 @@
         <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -9555,7 +9552,7 @@
         <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D50">
         <v>0</v>
